--- a/src/main/webapp/assets/excel/plan/Mining_Plan_1_1.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Plan_1_1.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace-tdr\tdr-mr\src\main\webapp\assets\excel\plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9750"/>
   </bookViews>
   <sheets>
-    <sheet name="SGT" sheetId="1" r:id="rId1"/>
+    <sheet name="1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SGT!$S$1:$S$3102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.1'!$S$1:$S$3102</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -104,13 +99,13 @@
     <t>Маягтын мэдээлэл</t>
   </si>
   <si>
-    <t>Тайлангийн маягт 1.1-ын мэдээлэл</t>
+    <t>Тайлангийн маягт 1.1  Бүтээгдэхүүн үйлдвэрлэлийн төлөв</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,7 +279,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -303,9 +298,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,7 +585,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -626,14 +618,12 @@
         <v>12</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:130" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:130" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -81419,12 +81409,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="N4:W4"/>
     <mergeCell ref="A1:D1"/>
@@ -81441,6 +81425,12 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/webapp/assets/excel/plan/Mining_Plan_1_1.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Plan_1_1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Тайлан татаж авсан огноо:</t>
   </si>
@@ -101,12 +101,15 @@
   <si>
     <t>Тайлангийн маягт 1.1  Бүтээгдэхүүн үйлдвэрлэлийн төлөв</t>
   </si>
+  <si>
+    <t>Тодотгол</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +139,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,9 +232,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -233,9 +241,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,12 +290,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -298,6 +298,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,10 +594,10 @@
   <dimension ref="A1:DZ3102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,7 +614,8 @@
     <col min="21" max="21" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="24" max="24" width="15" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:130" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,10 +633,10 @@
       <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:130" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:130" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -653,6 +666,7 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:130" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -670,7 +684,7 @@
       <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -682,10 +696,10 @@
       <c r="I5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="11" t="s">
@@ -694,24 +708,27 @@
       <c r="M5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="14" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="11" t="s">
+      <c r="S5" s="18"/>
+      <c r="T5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11" t="s">
+      <c r="U5" s="15"/>
+      <c r="V5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="11"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:130" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -719,12 +736,12 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="1" t="s">
@@ -757,6 +774,7 @@
       <c r="W6" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:130" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -828,7 +846,9 @@
       <c r="W7" s="5">
         <v>23</v>
       </c>
-      <c r="X7" s="9"/>
+      <c r="X7" s="20">
+        <v>24</v>
+      </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
@@ -81408,9 +81428,16 @@
       <c r="X3102"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="V5:W5"/>
-    <mergeCell ref="N4:W4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="N5:Q5"/>
@@ -81425,12 +81452,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/webapp/assets/excel/plan/Mining_Plan_1_1.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Plan_1_1.xlsx
@@ -23,9 +23,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>Тайлан татаж авсан огноо:</t>
-  </si>
   <si>
     <t>Д/д</t>
   </si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Ерөнхий мэдээлэл</t>
-  </si>
-  <si>
-    <t>Тайлангийн он:</t>
   </si>
   <si>
     <t>Төлөв</t>
@@ -99,10 +93,16 @@
     <t>Маягтын мэдээлэл</t>
   </si>
   <si>
-    <t>Тайлангийн маягт 1.1  Бүтээгдэхүүн үйлдвэрлэлийн төлөв</t>
+    <t>Тодотгол</t>
   </si>
   <si>
-    <t>Тодотгол</t>
+    <t>Төлөвлөгөөний маягт 1.1  Бүтээгдэхүүн үйлдвэрлэлийн төлөв</t>
+  </si>
+  <si>
+    <t>Он:</t>
+  </si>
+  <si>
+    <t>Татаж авсан огноо:</t>
   </si>
 </sst>
 </file>
@@ -281,7 +281,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,26 +299,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -597,7 +597,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -619,162 +619,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:130" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:130" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:130" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:130" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:130" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="5" spans="1:130" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:130" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="I5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="T5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="14"/>
+      <c r="X5" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:130" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:130" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-    </row>
-    <row r="5" spans="1:130" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="O6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="P6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>13</v>
+      <c r="Q6" s="1" t="s">
+        <v>16</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="R6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="17" t="s">
-        <v>20</v>
+      <c r="S6" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="15" t="s">
-        <v>22</v>
+      <c r="T6" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:130" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="U6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="V6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
-      <c r="X6" s="19"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:130" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -846,7 +846,7 @@
       <c r="W7" s="5">
         <v>23</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="11">
         <v>24</v>
       </c>
       <c r="Y7" s="9"/>
@@ -81429,15 +81429,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="V5:W5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="N5:Q5"/>
@@ -81450,8 +81441,17 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="T5:U5"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
